--- a/story/主线剧情/main/level_main_07-08_beg.xlsx
+++ b/story/主线剧情/main/level_main_07-08_beg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="524">
   <si>
     <t>zh_CN</t>
   </si>
@@ -22,6 +22,9 @@
     <t>ja_JP</t>
   </si>
   <si>
+    <t>en_US</t>
+  </si>
+  <si>
     <t>ko_KR</t>
   </si>
   <si>
@@ -1062,6 +1065,526 @@
   </si>
   <si>
     <t xml:space="preserve">[name="ロスモンティス"]  あなたたちにしたこと、私の家族にしたこと、全ての人にしたことを全部返してやるの。全部……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Guard, explain yourself.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  I must look exactly like a Reunion member... huh?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Infected"]  So you know each other.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Infected"]  Right, so everything this Cautus said was a lie.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Infected"]  You and Reunion have always been on the same side! Isn’t that right?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  ...Tati... Did you find any food? The people in the shelter don’t have long.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Infected"]  What more do you want from me?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Let’s get you to someplace safe first.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Stay away from her, Guard! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  I’m staying back.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  ...I know things might be hard to explain.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  But we have to be careful. All the Ursus here became Infected of no fault of their own... and they’ve had a tough time.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Most of them are already on the verge of mental breakdown... All it takes is someone to push them over the edge.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Infected"]  We’ve had it “tough?” You’re psycho murderers! Sadistic freaks!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Infected"]  Because of you... look what happened to me! Look what I’ve become!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  But if you don’t leave right now, the devils will find you. You’ll be handed over to Reunion.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Patriot’s troops have completely pulled out of this area. If you’re caught, I can’t save you at that point.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Infected"]  Then just let me die! I’d rather die than watch you monsters run rampant!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Infected"]  What about guerrillas or this so called “Aegis of the Infected?” ...Are they any different from the rest of Reunion?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  They are. Without them, we’d be dead already.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Infected"]  Tell me then! Right now!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Infected"]  If they’re just trying to do the right thing, why are they still with Reunion? Why’d they do this to our homes?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Infected"]  Why aren’t they rebelling? Why aren’t they walking out?! Why did they do all this even knowing we’ve been spat on, persecuted, and killed?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Infected"]  Why didn’t your great guerrillas fight back against the patrolling devils? Why?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Infected"]  I watched them... they used their own hands... to rip... tear...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Patriot can’t be everywhere at once.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  When Patriot has to command his forces to defend the sanctity of life, something has gone horribly wrong.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  But... as long as the guerrillas still continue to pass through this area, I can assure you that the truly wicked in Reunion will not set foot here.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  That is the difference between Reunion’s thugs and Patriot’s guerrilla warriors. Patriot, and the Sarkaz as a whole, are much more disciplined than Reunion’s ranks.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Infected"]  Where are they then?! Why aren’t they here?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Infected"]  When they left, the other Infected were so much worse, so cruel!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Infected"]  How is that not their fault? If not for the guerrillas, they never would’ve turned against us like this, right?! They’re just out for revenge on the guerrillas!!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  ...You’re wrong.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  The guerrillas did the right thing. And while as you said, some may be trying to take revenge on the guerrillas...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  They gave you a chance to survive, so Reunion is retaliating against them. That is all.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  No, they did more than that... One might even say they’re defending your dignity. I saw it with my own eyes.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  I saw the soldier telling the others to call you by your names, rather than your numbers.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Isn’t that right?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Infected"]  ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  And, the reason they left us alone was so that we could help you when they are away.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  ...Chernobog has already been cut up into many pieces.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  There are some places that the guerrillas are stationed, but also many where they are not... If no one can maintain discipline, then if you want to survive... you can only depend on us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  And that’s even assuming we survive.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Amiya, do you believe what I said just now?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Infected"]  No!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Infected"]  Cautus girl, look... Look! He’s Reunion!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Infected"]  How can you believe anything coming from Reunion? And what about me? Am I supposed to buy into their bullshit now that I’m Infected?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Infected"]  Look, the people you said wanted to murder us... aren’t they Reunion?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Infected"]  Now that I’m Infected, is Reunion suddenly going to take me in and treat me better? How the hell am I supposed to know who’s who, and which one of you is going to kill me?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Infected"]  You, Reunion, all of you should just... should just...!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  (Amiya.)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  (Dr. Kal’tsit?)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  (Don’t get worked up.)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  Kal'tsit?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  Kal'tsit, we should keep moving.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  ...You...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Why are you here...?! You, of all people!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Are you... trying to eradicate Reunion completely?! Rhodes Island, you’re really no better...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  Hm?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  ...Forget that for now! The Sarkaz mercenary patrol is going to pass through this warehouse soon!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  If we don’t deal with them, or at least hide, they’re going to find us and take us away...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Not to mention the regular Reunion patrols. We don’t have much time to find supplies!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  That’s why so many are starving, and short on medicine. There’s a lot of death among the people of Chernobog.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Amiya, Dr. Kal'tsit! Also... Dr. {@nickname}, I really hope you can trust me. Or at least find somewhere to hide!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Guard...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Infected Ursus woman.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Infected"]  Do you mean me?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Infecterd Ursus woman, I have some honest questions for you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Infected"]  Y-your accent... you’re from the capital of the Empire, aren’t you?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Infected"]  But the way you speak, it’s so old-fashioned...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  You’re educated.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Infected"]  ...I was a copyist at a university, before.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Infected"]  It’s all gone now, thanks to you Infected.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  All right, do you trust the man behind you? Our Infected former employee, now with Reunion?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Infected"]  Huh?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Infected"]  He’s... your employee?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  One of Rhodes Island’s functions is helping innocent Infected survive in a combat environment.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Whether or not you are innocent remains to be seen...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  However.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mon3tr"]  ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Infected"]  Aaaahh!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Dr. Kal'tsit!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="What are you doing?!", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Infected"]  Y-you, your... what... is... mmng...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  ...never thought I’d see a day when Mon3tr was after me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  The blade pressed against your throat has an incision angle of only eight degrees. Another six millimeters deeper and it severs an artery.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Miss.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Infected"]  Um, err...?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Did he truly work so hard to ensure your survival, as he claimed?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Infected"]  What are you asking... What are you getting at?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Did he and his Reunion element, or any part thereof, threaten your life or take any action to harm you?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  I will deal with him in accordance with your response.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Infected"]  Are you threatening me with his life?! I... we... we had nothing to do with each other!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  What about him, individually? Did he go along with Reunion and their crimes against humanity?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Doctor... Kal’tsit... I’m insulted!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  I can only rely on the words of eyewitnesses and victims. Since you claim to have guaranteed her right to life, then I have only the young lady’s testimony by which to adjudicate your claim.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  You gave only your side of the story.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  But what she says is also—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  She’s in a different position.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  You have power. You can use violence. It doesn’t matter what you did with that violence.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  I felt it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  Amiya, it’s the Sarkaz.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  The targets are getting close.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Infected"]  Couldn’t... but he...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Did he or did he not protect you from Reunion? Did he or did he not effectively keep you safe from their aggression?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Dr. Kal’tsit...! The patrol is here! It’s not... it’s not the guerrillas! You can’t... Don’t let them...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Infected"]  You’re not making any sense!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  I am confident our actions are well within the ethical parameters of Ursus. It was you who made the accusation against him.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Infected"]  He... he did go out regularly, about this time...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Dr. Kal’tsit! Let me... stop the Sarkaz! Or at least... let me get them to go someplace else!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  I need an answer.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Speak. Or we will never know the truth.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  Twenty-four meters out, in a straight line. Very close.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  Twenty-two meters.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Mon3tr.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Dr. Kal’tsit!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Infected"]  No! He didn’t! He didn’t do anything wrong!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Infected"]  At least... at least nothing I saw!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Amiya, Doctor.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="Huh?;......;You put on a good show.", values="1;2;3")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Thank you for your time.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Darn it... Dr. Kal’tsit! I knew it...!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Let’s go, Doctor!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Our next target is Reunion’s Sarkaz patrol team!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  I’m coming too.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  Guard, was it?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  You’re wrong about me. But I’ll protect you. I’ll get your revenge for you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  They’ll pay for what they did to you, and my family, and the common people. They’ll all pay, for all of it.
 </t>
   </si>
   <si>
@@ -1940,13 +2463,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C134"/>
+  <dimension ref="A1:D134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1956,1468 +2479,1870 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" t="s">
+        <v>266</v>
+      </c>
+      <c r="D4" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D5" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" t="s">
+        <v>268</v>
+      </c>
+      <c r="D6" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" t="s">
+        <v>269</v>
+      </c>
+      <c r="D7" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" t="s">
+        <v>270</v>
+      </c>
+      <c r="D8" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" t="s">
+        <v>271</v>
+      </c>
+      <c r="D9" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" t="s">
+        <v>272</v>
+      </c>
+      <c r="D10" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" t="s">
+        <v>273</v>
+      </c>
+      <c r="D11" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" t="s">
+        <v>274</v>
+      </c>
+      <c r="D12" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" t="s">
+        <v>275</v>
+      </c>
+      <c r="D13" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D14" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" t="s">
+        <v>277</v>
+      </c>
+      <c r="D15" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>148</v>
+      </c>
+      <c r="C16" t="s">
+        <v>278</v>
+      </c>
+      <c r="D16" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C17" t="s">
+        <v>279</v>
+      </c>
+      <c r="D17" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C18" t="s">
+        <v>280</v>
+      </c>
+      <c r="D18" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" t="s">
+        <v>281</v>
+      </c>
+      <c r="D19" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C20" t="s">
+        <v>282</v>
+      </c>
+      <c r="D20" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>153</v>
+      </c>
+      <c r="C21" t="s">
+        <v>283</v>
+      </c>
+      <c r="D21" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C22" t="s">
+        <v>284</v>
+      </c>
+      <c r="D22" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>155</v>
+      </c>
+      <c r="C23" t="s">
+        <v>285</v>
+      </c>
+      <c r="D23" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>156</v>
+      </c>
+      <c r="C24" t="s">
+        <v>286</v>
+      </c>
+      <c r="D24" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>157</v>
+      </c>
+      <c r="C25" t="s">
+        <v>287</v>
+      </c>
+      <c r="D25" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>158</v>
+      </c>
+      <c r="C26" t="s">
+        <v>288</v>
+      </c>
+      <c r="D26" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>159</v>
+      </c>
+      <c r="C27" t="s">
+        <v>289</v>
+      </c>
+      <c r="D27" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>160</v>
+      </c>
+      <c r="C28" t="s">
+        <v>290</v>
+      </c>
+      <c r="D28" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>161</v>
+      </c>
+      <c r="C29" t="s">
+        <v>291</v>
+      </c>
+      <c r="D29" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>162</v>
+      </c>
+      <c r="C30" t="s">
+        <v>292</v>
+      </c>
+      <c r="D30" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>163</v>
+      </c>
+      <c r="C31" t="s">
+        <v>293</v>
+      </c>
+      <c r="D31" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>164</v>
+      </c>
+      <c r="C32" t="s">
+        <v>294</v>
+      </c>
+      <c r="D32" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>165</v>
+      </c>
+      <c r="C33" t="s">
+        <v>295</v>
+      </c>
+      <c r="D33" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>166</v>
+      </c>
+      <c r="C34" t="s">
+        <v>296</v>
+      </c>
+      <c r="D34" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>167</v>
+      </c>
+      <c r="C35" t="s">
+        <v>297</v>
+      </c>
+      <c r="D35" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>168</v>
+      </c>
+      <c r="C36" t="s">
+        <v>298</v>
+      </c>
+      <c r="D36" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>169</v>
+      </c>
+      <c r="C37" t="s">
+        <v>299</v>
+      </c>
+      <c r="D37" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" t="s">
+        <v>170</v>
+      </c>
+      <c r="C38" t="s">
+        <v>300</v>
+      </c>
+      <c r="D38" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>171</v>
+      </c>
+      <c r="C39" t="s">
+        <v>301</v>
+      </c>
+      <c r="D39" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
+        <v>172</v>
+      </c>
+      <c r="C40" t="s">
+        <v>302</v>
+      </c>
+      <c r="D40" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>173</v>
+      </c>
+      <c r="C41" t="s">
+        <v>303</v>
+      </c>
+      <c r="D41" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>174</v>
+      </c>
+      <c r="C42" t="s">
+        <v>304</v>
+      </c>
+      <c r="D42" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>175</v>
+      </c>
+      <c r="C43" t="s">
+        <v>305</v>
+      </c>
+      <c r="D43" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" t="s">
+        <v>176</v>
+      </c>
+      <c r="C44" t="s">
+        <v>306</v>
+      </c>
+      <c r="D44" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>177</v>
+      </c>
+      <c r="C45" t="s">
+        <v>307</v>
+      </c>
+      <c r="D45" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" t="s">
+        <v>178</v>
+      </c>
+      <c r="C46" t="s">
+        <v>308</v>
+      </c>
+      <c r="D46" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>179</v>
+      </c>
+      <c r="C47" t="s">
+        <v>309</v>
+      </c>
+      <c r="D47" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" t="s">
+        <v>139</v>
+      </c>
+      <c r="C48" t="s">
+        <v>269</v>
+      </c>
+      <c r="D48" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" t="s">
+        <v>180</v>
+      </c>
+      <c r="C49" t="s">
+        <v>310</v>
+      </c>
+      <c r="D49" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" t="s">
+        <v>181</v>
+      </c>
+      <c r="C50" t="s">
+        <v>311</v>
+      </c>
+      <c r="D50" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" t="s">
+        <v>182</v>
+      </c>
+      <c r="C51" t="s">
+        <v>312</v>
+      </c>
+      <c r="D51" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" t="s">
+        <v>183</v>
+      </c>
+      <c r="C52" t="s">
+        <v>313</v>
+      </c>
+      <c r="D52" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" t="s">
+        <v>184</v>
+      </c>
+      <c r="C53" t="s">
+        <v>314</v>
+      </c>
+      <c r="D53" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" t="s">
+        <v>185</v>
+      </c>
+      <c r="C54" t="s">
+        <v>315</v>
+      </c>
+      <c r="D54" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" t="s">
+        <v>186</v>
+      </c>
+      <c r="C55" t="s">
+        <v>316</v>
+      </c>
+      <c r="D55" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" t="s">
+        <v>187</v>
+      </c>
+      <c r="C56" t="s">
+        <v>317</v>
+      </c>
+      <c r="D56" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" t="s">
+        <v>188</v>
+      </c>
+      <c r="C57" t="s">
+        <v>318</v>
+      </c>
+      <c r="D57" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" t="s">
+        <v>189</v>
+      </c>
+      <c r="C58" t="s">
+        <v>319</v>
+      </c>
+      <c r="D58" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" t="s">
+        <v>190</v>
+      </c>
+      <c r="C59" t="s">
+        <v>320</v>
+      </c>
+      <c r="D59" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" t="s">
+        <v>191</v>
+      </c>
+      <c r="C60" t="s">
+        <v>321</v>
+      </c>
+      <c r="D60" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" t="s">
+        <v>192</v>
+      </c>
+      <c r="C61" t="s">
+        <v>322</v>
+      </c>
+      <c r="D61" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" t="s">
+        <v>193</v>
+      </c>
+      <c r="C62" t="s">
+        <v>323</v>
+      </c>
+      <c r="D62" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" t="s">
+        <v>194</v>
+      </c>
+      <c r="C63" t="s">
+        <v>324</v>
+      </c>
+      <c r="D63" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" t="s">
+        <v>195</v>
+      </c>
+      <c r="C64" t="s">
+        <v>325</v>
+      </c>
+      <c r="D64" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" t="s">
+        <v>196</v>
+      </c>
+      <c r="C65" t="s">
+        <v>326</v>
+      </c>
+      <c r="D65" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" t="s">
+        <v>197</v>
+      </c>
+      <c r="C66" t="s">
+        <v>327</v>
+      </c>
+      <c r="D66" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" t="s">
+        <v>198</v>
+      </c>
+      <c r="C67" t="s">
+        <v>328</v>
+      </c>
+      <c r="D67" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" t="s">
+        <v>199</v>
+      </c>
+      <c r="C68" t="s">
+        <v>329</v>
+      </c>
+      <c r="D68" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" t="s">
+        <v>200</v>
+      </c>
+      <c r="C69" t="s">
+        <v>330</v>
+      </c>
+      <c r="D69" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" t="s">
+        <v>201</v>
+      </c>
+      <c r="C70" t="s">
+        <v>331</v>
+      </c>
+      <c r="D70" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>44</v>
+      </c>
+      <c r="B71" t="s">
+        <v>174</v>
+      </c>
+      <c r="C71" t="s">
+        <v>304</v>
+      </c>
+      <c r="D71" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72" t="s">
+        <v>202</v>
+      </c>
+      <c r="C72" t="s">
+        <v>332</v>
+      </c>
+      <c r="D72" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73" t="s">
+        <v>203</v>
+      </c>
+      <c r="C73" t="s">
+        <v>333</v>
+      </c>
+      <c r="D73" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74" t="s">
+        <v>204</v>
+      </c>
+      <c r="C74" t="s">
+        <v>334</v>
+      </c>
+      <c r="D74" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75" t="s">
+        <v>205</v>
+      </c>
+      <c r="C75" t="s">
+        <v>335</v>
+      </c>
+      <c r="D75" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76" t="s">
+        <v>206</v>
+      </c>
+      <c r="C76" t="s">
+        <v>336</v>
+      </c>
+      <c r="D76" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77" t="s">
+        <v>207</v>
+      </c>
+      <c r="C77" t="s">
+        <v>337</v>
+      </c>
+      <c r="D77" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78" t="s">
+        <v>208</v>
+      </c>
+      <c r="C78" t="s">
+        <v>338</v>
+      </c>
+      <c r="D78" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>79</v>
+      </c>
+      <c r="B79" t="s">
+        <v>209</v>
+      </c>
+      <c r="C79" t="s">
+        <v>339</v>
+      </c>
+      <c r="D79" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>80</v>
+      </c>
+      <c r="B80" t="s">
+        <v>210</v>
+      </c>
+      <c r="C80" t="s">
+        <v>340</v>
+      </c>
+      <c r="D80" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81" t="s">
+        <v>211</v>
+      </c>
+      <c r="C81" t="s">
+        <v>341</v>
+      </c>
+      <c r="D81" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82" t="s">
+        <v>212</v>
+      </c>
+      <c r="C82" t="s">
+        <v>342</v>
+      </c>
+      <c r="D82" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83" t="s">
+        <v>213</v>
+      </c>
+      <c r="C83" t="s">
+        <v>343</v>
+      </c>
+      <c r="D83" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84" t="s">
+        <v>214</v>
+      </c>
+      <c r="C84" t="s">
+        <v>344</v>
+      </c>
+      <c r="D84" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85" t="s">
+        <v>215</v>
+      </c>
+      <c r="C85" t="s">
+        <v>345</v>
+      </c>
+      <c r="D85" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>86</v>
+      </c>
+      <c r="B86" t="s">
+        <v>216</v>
+      </c>
+      <c r="C86" t="s">
+        <v>346</v>
+      </c>
+      <c r="D86" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>87</v>
+      </c>
+      <c r="B87" t="s">
+        <v>217</v>
+      </c>
+      <c r="C87" t="s">
+        <v>347</v>
+      </c>
+      <c r="D87" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>88</v>
+      </c>
+      <c r="B88" t="s">
+        <v>218</v>
+      </c>
+      <c r="C88" t="s">
+        <v>348</v>
+      </c>
+      <c r="D88" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>89</v>
+      </c>
+      <c r="B89" t="s">
+        <v>219</v>
+      </c>
+      <c r="C89" t="s">
+        <v>349</v>
+      </c>
+      <c r="D89" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>90</v>
+      </c>
+      <c r="B90" t="s">
+        <v>220</v>
+      </c>
+      <c r="C90" t="s">
+        <v>350</v>
+      </c>
+      <c r="D90" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91" t="s">
+        <v>221</v>
+      </c>
+      <c r="C91" t="s">
+        <v>351</v>
+      </c>
+      <c r="D91" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>92</v>
+      </c>
+      <c r="B92" t="s">
+        <v>222</v>
+      </c>
+      <c r="C92" t="s">
+        <v>352</v>
+      </c>
+      <c r="D92" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93" t="s">
+        <v>223</v>
+      </c>
+      <c r="C93" t="s">
+        <v>353</v>
+      </c>
+      <c r="D93" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>94</v>
+      </c>
+      <c r="B94" t="s">
+        <v>224</v>
+      </c>
+      <c r="C94" t="s">
+        <v>354</v>
+      </c>
+      <c r="D94" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>95</v>
+      </c>
+      <c r="B95" t="s">
+        <v>225</v>
+      </c>
+      <c r="C95" t="s">
+        <v>355</v>
+      </c>
+      <c r="D95" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>96</v>
+      </c>
+      <c r="B96" t="s">
+        <v>226</v>
+      </c>
+      <c r="C96" t="s">
+        <v>356</v>
+      </c>
+      <c r="D96" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97" t="s">
+        <v>227</v>
+      </c>
+      <c r="C97" t="s">
+        <v>357</v>
+      </c>
+      <c r="D97" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98" t="s">
+        <v>228</v>
+      </c>
+      <c r="C98" t="s">
+        <v>358</v>
+      </c>
+      <c r="D98" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>99</v>
+      </c>
+      <c r="B99" t="s">
+        <v>229</v>
+      </c>
+      <c r="C99" t="s">
+        <v>359</v>
+      </c>
+      <c r="D99" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>100</v>
+      </c>
+      <c r="B100" t="s">
+        <v>230</v>
+      </c>
+      <c r="C100" t="s">
+        <v>360</v>
+      </c>
+      <c r="D100" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>101</v>
+      </c>
+      <c r="B101" t="s">
+        <v>231</v>
+      </c>
+      <c r="C101" t="s">
+        <v>361</v>
+      </c>
+      <c r="D101" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>102</v>
+      </c>
+      <c r="B102" t="s">
+        <v>232</v>
+      </c>
+      <c r="C102" t="s">
+        <v>362</v>
+      </c>
+      <c r="D102" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>103</v>
+      </c>
+      <c r="B103" t="s">
+        <v>233</v>
+      </c>
+      <c r="C103" t="s">
+        <v>363</v>
+      </c>
+      <c r="D103" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>104</v>
+      </c>
+      <c r="B104" t="s">
+        <v>234</v>
+      </c>
+      <c r="C104" t="s">
+        <v>364</v>
+      </c>
+      <c r="D104" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>105</v>
+      </c>
+      <c r="B105" t="s">
+        <v>235</v>
+      </c>
+      <c r="C105" t="s">
+        <v>365</v>
+      </c>
+      <c r="D105" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106" t="s">
+        <v>236</v>
+      </c>
+      <c r="C106" t="s">
+        <v>366</v>
+      </c>
+      <c r="D106" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>107</v>
+      </c>
+      <c r="B107" t="s">
+        <v>237</v>
+      </c>
+      <c r="C107" t="s">
+        <v>367</v>
+      </c>
+      <c r="D107" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>108</v>
+      </c>
+      <c r="B108" t="s">
+        <v>238</v>
+      </c>
+      <c r="C108" t="s">
+        <v>368</v>
+      </c>
+      <c r="D108" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>109</v>
+      </c>
+      <c r="B109" t="s">
+        <v>239</v>
+      </c>
+      <c r="C109" t="s">
+        <v>369</v>
+      </c>
+      <c r="D109" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>110</v>
+      </c>
+      <c r="B110" t="s">
+        <v>240</v>
+      </c>
+      <c r="C110" t="s">
+        <v>370</v>
+      </c>
+      <c r="D110" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>111</v>
+      </c>
+      <c r="B111" t="s">
+        <v>241</v>
+      </c>
+      <c r="C111" t="s">
+        <v>371</v>
+      </c>
+      <c r="D111" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>112</v>
+      </c>
+      <c r="B112" t="s">
+        <v>242</v>
+      </c>
+      <c r="C112" t="s">
+        <v>372</v>
+      </c>
+      <c r="D112" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>113</v>
+      </c>
+      <c r="B113" t="s">
+        <v>243</v>
+      </c>
+      <c r="C113" t="s">
+        <v>373</v>
+      </c>
+      <c r="D113" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>114</v>
+      </c>
+      <c r="B114" t="s">
+        <v>244</v>
+      </c>
+      <c r="C114" t="s">
+        <v>374</v>
+      </c>
+      <c r="D114" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>115</v>
+      </c>
+      <c r="B115" t="s">
+        <v>245</v>
+      </c>
+      <c r="C115" t="s">
+        <v>375</v>
+      </c>
+      <c r="D115" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>116</v>
+      </c>
+      <c r="B116" t="s">
+        <v>246</v>
+      </c>
+      <c r="C116" t="s">
+        <v>376</v>
+      </c>
+      <c r="D116" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>117</v>
+      </c>
+      <c r="B117" t="s">
+        <v>247</v>
+      </c>
+      <c r="C117" t="s">
+        <v>377</v>
+      </c>
+      <c r="D117" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>118</v>
+      </c>
+      <c r="B118" t="s">
+        <v>248</v>
+      </c>
+      <c r="C118" t="s">
+        <v>378</v>
+      </c>
+      <c r="D118" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>44</v>
+      </c>
+      <c r="B119" t="s">
+        <v>174</v>
+      </c>
+      <c r="C119" t="s">
+        <v>304</v>
+      </c>
+      <c r="D119" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>249</v>
+      </c>
+      <c r="C120" t="s">
+        <v>379</v>
+      </c>
+      <c r="D120" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>250</v>
+      </c>
+      <c r="C121" t="s">
+        <v>380</v>
+      </c>
+      <c r="D121" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>251</v>
+      </c>
+      <c r="C122" t="s">
+        <v>381</v>
+      </c>
+      <c r="D122" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>252</v>
+      </c>
+      <c r="C123" t="s">
+        <v>382</v>
+      </c>
+      <c r="D123" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>253</v>
+      </c>
+      <c r="C124" t="s">
+        <v>383</v>
+      </c>
+      <c r="D124" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>254</v>
+      </c>
+      <c r="C125" t="s">
+        <v>384</v>
+      </c>
+      <c r="D125" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>255</v>
+      </c>
+      <c r="C126" t="s">
+        <v>385</v>
+      </c>
+      <c r="D126" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>256</v>
+      </c>
+      <c r="C127" t="s">
+        <v>386</v>
+      </c>
+      <c r="D127" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>257</v>
+      </c>
+      <c r="C128" t="s">
+        <v>387</v>
+      </c>
+      <c r="D128" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>258</v>
+      </c>
+      <c r="C129" t="s">
+        <v>388</v>
+      </c>
+      <c r="D129" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>259</v>
+      </c>
+      <c r="C130" t="s">
+        <v>389</v>
+      </c>
+      <c r="D130" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>260</v>
+      </c>
+      <c r="C131" t="s">
+        <v>390</v>
+      </c>
+      <c r="D131" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>261</v>
+      </c>
+      <c r="C132" t="s">
+        <v>391</v>
+      </c>
+      <c r="D132" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>262</v>
+      </c>
+      <c r="C133" t="s">
+        <v>392</v>
+      </c>
+      <c r="D133" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
         <v>133</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B134" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C4" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C5" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C6" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>138</v>
-      </c>
-      <c r="C7" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>139</v>
-      </c>
-      <c r="C8" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C9" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C10" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>142</v>
-      </c>
-      <c r="C11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>143</v>
-      </c>
-      <c r="C12" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>144</v>
-      </c>
-      <c r="C13" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>145</v>
-      </c>
-      <c r="C14" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>146</v>
-      </c>
-      <c r="C15" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>147</v>
-      </c>
-      <c r="C16" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" t="s">
-        <v>148</v>
-      </c>
-      <c r="C17" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>149</v>
-      </c>
-      <c r="C18" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>150</v>
-      </c>
-      <c r="C19" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" t="s">
-        <v>151</v>
-      </c>
-      <c r="C20" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" t="s">
-        <v>152</v>
-      </c>
-      <c r="C21" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>153</v>
-      </c>
-      <c r="C22" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>154</v>
-      </c>
-      <c r="C23" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>155</v>
-      </c>
-      <c r="C24" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" t="s">
-        <v>156</v>
-      </c>
-      <c r="C25" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" t="s">
-        <v>157</v>
-      </c>
-      <c r="C26" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" t="s">
-        <v>158</v>
-      </c>
-      <c r="C27" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" t="s">
-        <v>159</v>
-      </c>
-      <c r="C28" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" t="s">
-        <v>160</v>
-      </c>
-      <c r="C29" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" t="s">
-        <v>161</v>
-      </c>
-      <c r="C30" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" t="s">
-        <v>162</v>
-      </c>
-      <c r="C31" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" t="s">
-        <v>163</v>
-      </c>
-      <c r="C32" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" t="s">
-        <v>164</v>
-      </c>
-      <c r="C33" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" t="s">
-        <v>165</v>
-      </c>
-      <c r="C34" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" t="s">
-        <v>166</v>
-      </c>
-      <c r="C35" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" t="s">
-        <v>167</v>
-      </c>
-      <c r="C36" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" t="s">
-        <v>168</v>
-      </c>
-      <c r="C37" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" t="s">
-        <v>169</v>
-      </c>
-      <c r="C38" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" t="s">
-        <v>170</v>
-      </c>
-      <c r="C39" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" t="s">
-        <v>171</v>
-      </c>
-      <c r="C40" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" t="s">
-        <v>172</v>
-      </c>
-      <c r="C41" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" t="s">
-        <v>173</v>
-      </c>
-      <c r="C42" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" t="s">
-        <v>174</v>
-      </c>
-      <c r="C43" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" t="s">
-        <v>175</v>
-      </c>
-      <c r="C44" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" t="s">
-        <v>176</v>
-      </c>
-      <c r="C45" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46" t="s">
-        <v>177</v>
-      </c>
-      <c r="C46" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>48</v>
-      </c>
-      <c r="B47" t="s">
-        <v>178</v>
-      </c>
-      <c r="C47" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>8</v>
-      </c>
-      <c r="B48" t="s">
-        <v>138</v>
-      </c>
-      <c r="C48" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" t="s">
-        <v>179</v>
-      </c>
-      <c r="C49" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50" t="s">
-        <v>180</v>
-      </c>
-      <c r="C50" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51" t="s">
-        <v>181</v>
-      </c>
-      <c r="C51" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52" t="s">
-        <v>182</v>
-      </c>
-      <c r="C52" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53" t="s">
-        <v>183</v>
-      </c>
-      <c r="C53" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54" t="s">
-        <v>184</v>
-      </c>
-      <c r="C54" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55" t="s">
-        <v>185</v>
-      </c>
-      <c r="C55" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56" t="s">
-        <v>186</v>
-      </c>
-      <c r="C56" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57" t="s">
-        <v>187</v>
-      </c>
-      <c r="C57" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58" t="s">
-        <v>188</v>
-      </c>
-      <c r="C58" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
-        <v>59</v>
-      </c>
-      <c r="B59" t="s">
-        <v>189</v>
-      </c>
-      <c r="C59" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
-        <v>60</v>
-      </c>
-      <c r="B60" t="s">
-        <v>190</v>
-      </c>
-      <c r="C60" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61" t="s">
-        <v>191</v>
-      </c>
-      <c r="C61" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
-        <v>62</v>
-      </c>
-      <c r="B62" t="s">
-        <v>192</v>
-      </c>
-      <c r="C62" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
-        <v>63</v>
-      </c>
-      <c r="B63" t="s">
-        <v>193</v>
-      </c>
-      <c r="C63" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
-        <v>64</v>
-      </c>
-      <c r="B64" t="s">
-        <v>194</v>
-      </c>
-      <c r="C64" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
-        <v>65</v>
-      </c>
-      <c r="B65" t="s">
-        <v>195</v>
-      </c>
-      <c r="C65" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
-        <v>66</v>
-      </c>
-      <c r="B66" t="s">
-        <v>196</v>
-      </c>
-      <c r="C66" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
-        <v>67</v>
-      </c>
-      <c r="B67" t="s">
-        <v>197</v>
-      </c>
-      <c r="C67" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
-        <v>68</v>
-      </c>
-      <c r="B68" t="s">
-        <v>198</v>
-      </c>
-      <c r="C68" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
-        <v>69</v>
-      </c>
-      <c r="B69" t="s">
-        <v>199</v>
-      </c>
-      <c r="C69" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
-        <v>70</v>
-      </c>
-      <c r="B70" t="s">
-        <v>200</v>
-      </c>
-      <c r="C70" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
-        <v>43</v>
-      </c>
-      <c r="B71" t="s">
-        <v>173</v>
-      </c>
-      <c r="C71" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
-        <v>71</v>
-      </c>
-      <c r="B72" t="s">
-        <v>201</v>
-      </c>
-      <c r="C72" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="s">
-        <v>72</v>
-      </c>
-      <c r="B73" t="s">
-        <v>202</v>
-      </c>
-      <c r="C73" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
-        <v>73</v>
-      </c>
-      <c r="B74" t="s">
-        <v>203</v>
-      </c>
-      <c r="C74" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
-        <v>74</v>
-      </c>
-      <c r="B75" t="s">
-        <v>204</v>
-      </c>
-      <c r="C75" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="s">
-        <v>75</v>
-      </c>
-      <c r="B76" t="s">
-        <v>205</v>
-      </c>
-      <c r="C76" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" t="s">
-        <v>76</v>
-      </c>
-      <c r="B77" t="s">
-        <v>206</v>
-      </c>
-      <c r="C77" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" t="s">
-        <v>77</v>
-      </c>
-      <c r="B78" t="s">
-        <v>207</v>
-      </c>
-      <c r="C78" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="s">
-        <v>78</v>
-      </c>
-      <c r="B79" t="s">
-        <v>208</v>
-      </c>
-      <c r="C79" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="s">
-        <v>79</v>
-      </c>
-      <c r="B80" t="s">
-        <v>209</v>
-      </c>
-      <c r="C80" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
-        <v>80</v>
-      </c>
-      <c r="B81" t="s">
-        <v>210</v>
-      </c>
-      <c r="C81" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="s">
-        <v>81</v>
-      </c>
-      <c r="B82" t="s">
-        <v>211</v>
-      </c>
-      <c r="C82" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="s">
-        <v>82</v>
-      </c>
-      <c r="B83" t="s">
-        <v>212</v>
-      </c>
-      <c r="C83" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="s">
-        <v>83</v>
-      </c>
-      <c r="B84" t="s">
-        <v>213</v>
-      </c>
-      <c r="C84" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" t="s">
-        <v>84</v>
-      </c>
-      <c r="B85" t="s">
-        <v>214</v>
-      </c>
-      <c r="C85" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" t="s">
-        <v>85</v>
-      </c>
-      <c r="B86" t="s">
-        <v>215</v>
-      </c>
-      <c r="C86" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="s">
-        <v>86</v>
-      </c>
-      <c r="B87" t="s">
-        <v>216</v>
-      </c>
-      <c r="C87" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" t="s">
-        <v>87</v>
-      </c>
-      <c r="B88" t="s">
-        <v>217</v>
-      </c>
-      <c r="C88" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" t="s">
-        <v>88</v>
-      </c>
-      <c r="B89" t="s">
-        <v>218</v>
-      </c>
-      <c r="C89" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" t="s">
-        <v>89</v>
-      </c>
-      <c r="B90" t="s">
-        <v>219</v>
-      </c>
-      <c r="C90" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" t="s">
-        <v>90</v>
-      </c>
-      <c r="B91" t="s">
-        <v>220</v>
-      </c>
-      <c r="C91" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" t="s">
-        <v>91</v>
-      </c>
-      <c r="B92" t="s">
-        <v>221</v>
-      </c>
-      <c r="C92" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" t="s">
-        <v>92</v>
-      </c>
-      <c r="B93" t="s">
-        <v>222</v>
-      </c>
-      <c r="C93" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" t="s">
-        <v>93</v>
-      </c>
-      <c r="B94" t="s">
-        <v>223</v>
-      </c>
-      <c r="C94" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" t="s">
-        <v>94</v>
-      </c>
-      <c r="B95" t="s">
-        <v>224</v>
-      </c>
-      <c r="C95" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" t="s">
-        <v>95</v>
-      </c>
-      <c r="B96" t="s">
-        <v>225</v>
-      </c>
-      <c r="C96" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" t="s">
-        <v>96</v>
-      </c>
-      <c r="B97" t="s">
-        <v>226</v>
-      </c>
-      <c r="C97" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" t="s">
-        <v>97</v>
-      </c>
-      <c r="B98" t="s">
-        <v>227</v>
-      </c>
-      <c r="C98" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" t="s">
-        <v>98</v>
-      </c>
-      <c r="B99" t="s">
-        <v>228</v>
-      </c>
-      <c r="C99" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" t="s">
-        <v>99</v>
-      </c>
-      <c r="B100" t="s">
-        <v>229</v>
-      </c>
-      <c r="C100" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" t="s">
-        <v>100</v>
-      </c>
-      <c r="B101" t="s">
-        <v>230</v>
-      </c>
-      <c r="C101" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" t="s">
-        <v>101</v>
-      </c>
-      <c r="B102" t="s">
-        <v>231</v>
-      </c>
-      <c r="C102" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" t="s">
-        <v>102</v>
-      </c>
-      <c r="B103" t="s">
-        <v>232</v>
-      </c>
-      <c r="C103" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" t="s">
-        <v>103</v>
-      </c>
-      <c r="B104" t="s">
-        <v>233</v>
-      </c>
-      <c r="C104" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" t="s">
-        <v>104</v>
-      </c>
-      <c r="B105" t="s">
-        <v>234</v>
-      </c>
-      <c r="C105" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" t="s">
-        <v>105</v>
-      </c>
-      <c r="B106" t="s">
-        <v>235</v>
-      </c>
-      <c r="C106" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" t="s">
-        <v>106</v>
-      </c>
-      <c r="B107" t="s">
-        <v>236</v>
-      </c>
-      <c r="C107" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" t="s">
-        <v>107</v>
-      </c>
-      <c r="B108" t="s">
-        <v>237</v>
-      </c>
-      <c r="C108" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" t="s">
-        <v>108</v>
-      </c>
-      <c r="B109" t="s">
-        <v>238</v>
-      </c>
-      <c r="C109" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" t="s">
-        <v>109</v>
-      </c>
-      <c r="B110" t="s">
-        <v>239</v>
-      </c>
-      <c r="C110" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" t="s">
-        <v>110</v>
-      </c>
-      <c r="B111" t="s">
-        <v>240</v>
-      </c>
-      <c r="C111" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" t="s">
-        <v>111</v>
-      </c>
-      <c r="B112" t="s">
-        <v>241</v>
-      </c>
-      <c r="C112" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" t="s">
-        <v>112</v>
-      </c>
-      <c r="B113" t="s">
-        <v>242</v>
-      </c>
-      <c r="C113" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" t="s">
-        <v>113</v>
-      </c>
-      <c r="B114" t="s">
-        <v>243</v>
-      </c>
-      <c r="C114" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" t="s">
-        <v>114</v>
-      </c>
-      <c r="B115" t="s">
-        <v>244</v>
-      </c>
-      <c r="C115" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" t="s">
-        <v>115</v>
-      </c>
-      <c r="B116" t="s">
-        <v>245</v>
-      </c>
-      <c r="C116" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" t="s">
-        <v>116</v>
-      </c>
-      <c r="B117" t="s">
-        <v>246</v>
-      </c>
-      <c r="C117" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" t="s">
-        <v>117</v>
-      </c>
-      <c r="B118" t="s">
-        <v>247</v>
-      </c>
-      <c r="C118" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" t="s">
-        <v>43</v>
-      </c>
-      <c r="B119" t="s">
-        <v>173</v>
-      </c>
-      <c r="C119" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" t="s">
-        <v>118</v>
-      </c>
-      <c r="B120" t="s">
-        <v>248</v>
-      </c>
-      <c r="C120" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" t="s">
-        <v>119</v>
-      </c>
-      <c r="B121" t="s">
-        <v>249</v>
-      </c>
-      <c r="C121" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" t="s">
-        <v>120</v>
-      </c>
-      <c r="B122" t="s">
-        <v>250</v>
-      </c>
-      <c r="C122" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" t="s">
-        <v>121</v>
-      </c>
-      <c r="B123" t="s">
-        <v>251</v>
-      </c>
-      <c r="C123" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" t="s">
-        <v>122</v>
-      </c>
-      <c r="B124" t="s">
-        <v>252</v>
-      </c>
-      <c r="C124" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" t="s">
-        <v>123</v>
-      </c>
-      <c r="B125" t="s">
-        <v>253</v>
-      </c>
-      <c r="C125" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" t="s">
-        <v>124</v>
-      </c>
-      <c r="B126" t="s">
-        <v>254</v>
-      </c>
-      <c r="C126" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" t="s">
-        <v>125</v>
-      </c>
-      <c r="B127" t="s">
-        <v>255</v>
-      </c>
-      <c r="C127" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" t="s">
-        <v>126</v>
-      </c>
-      <c r="B128" t="s">
-        <v>256</v>
-      </c>
-      <c r="C128" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" t="s">
-        <v>127</v>
-      </c>
-      <c r="B129" t="s">
-        <v>257</v>
-      </c>
-      <c r="C129" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" t="s">
-        <v>128</v>
-      </c>
-      <c r="B130" t="s">
-        <v>258</v>
-      </c>
-      <c r="C130" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" t="s">
-        <v>129</v>
-      </c>
-      <c r="B131" t="s">
-        <v>259</v>
-      </c>
-      <c r="C131" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" t="s">
-        <v>130</v>
-      </c>
-      <c r="B132" t="s">
-        <v>260</v>
-      </c>
-      <c r="C132" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" t="s">
-        <v>131</v>
-      </c>
-      <c r="B133" t="s">
-        <v>261</v>
-      </c>
-      <c r="C133" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" t="s">
-        <v>132</v>
-      </c>
-      <c r="B134" t="s">
-        <v>262</v>
-      </c>
       <c r="C134" t="s">
-        <v>392</v>
+        <v>393</v>
+      </c>
+      <c r="D134" t="s">
+        <v>523</v>
       </c>
     </row>
   </sheetData>
